--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>time</t>
   </si>
@@ -19,6 +19,9 @@
     <t>step</t>
   </si>
   <si>
+    <t>related</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
@@ -31,7 +34,10 @@
     <t>sideKey</t>
   </si>
   <si>
-    <t>90 day notification to Congress of intention to begin negotiations</t>
+    <t>90-day notification to Congress of intention to begin negotiations</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/transportation/whiteboard/2017/05/ustr-sends-congress-formal-notice-to-reopen-nafta-087900</t>
   </si>
   <si>
     <t>Negotiation</t>
@@ -40,25 +46,52 @@
     <t>past</t>
   </si>
   <si>
-    <t>TK TK TK something to say</t>
+    <t>The first step was formally notifying Congress that the U.S. planned to launch the re-negotiation process with Canada and Mexico. U.S. Trade Representative Robert Lighthizer first met with four congressional committees — Senate Finance, House Ways and Means, and an advisory group from each chamber — before sending the formal letter to Capitol Hill on May 18 of last year.</t>
   </si>
   <si>
     <t>Negotiations begin</t>
   </si>
   <si>
-    <t xml:space="preserve">Curabitur libero ipsum, tristique et nibh et, posuere molestie dui. Nulla ut feugiat velit. Proin scelerisque, leo sed lobortis maximus, justo ex tristique massa, in consequat neque tortor sit amet eros. Curabitur porttitor eros aliquam urna mattis ultricies. Etiam viverra felis molestie, semper nisl a, maximus purus. </t>
-  </si>
-  <si>
-    <t>Negotiations conclude (no deadline)</t>
-  </si>
-  <si>
-    <t>180 day notification prior to signing agreement of potential changes to U.S. trade remeday laws</t>
-  </si>
-  <si>
-    <t>90 day notification of intention to sign agreeemnt</t>
-  </si>
-  <si>
-    <t>60 day prior to signing, release of agreement text. 30 days after notification fo intention to sign, submission of Advisory Committee reports</t>
+    <t>https://subscriber.politicopro.com/agriculture/story/2017/08/us-sets-tough-tone-with-canada-mexico-as-nafta-renegotiation-starts-160804</t>
+  </si>
+  <si>
+    <t>The administration formally launched negotiations on the first day that they could — August 16, exactly 90 days after sending the formal notification to Congress of their intent to do so. The three parties met in Washington for five days of talks that exposed deep differences among the countries on each of their goals for the renegotiation.</t>
+  </si>
+  <si>
+    <t>180-day notification prior to signing agreement of potential changes to U.S. trade remedy laws</t>
+  </si>
+  <si>
+    <t>https://www.politicopro.com/trade/story/2017/09/ustr-signals-new-nafta-deal-could-be-signed-in-march-162402</t>
+  </si>
+  <si>
+    <t>The trade office took a step toward paving the way to vote on the updated deal early in 2018 when it formally notified Congress in September that it expected changes to U.S. trade remedy laws would be coming. That step is required 180 days before any agreement can be signed, so the decision to send notice back on Sept. 24 indicated the administration was hopeful at that point that it might have been able to sign a deal as early as March 22.</t>
+  </si>
+  <si>
+    <t>Negotiations conclude</t>
+  </si>
+  <si>
+    <t>Negotiators from the three countries have been meeting regularly since talks began in August, and while they have closed a handful of chapters of the agreement they have yet to make substantial progress on any of the most controversial and highest-profile issues. After holding seven formal negotiating rounds that rotated among venues in each of the three countries, negotiators — and often trade ministers too — have been meeting consistently in Washington in an attempt to wrap up talks as quickly as possible.</t>
+  </si>
+  <si>
+    <t>90-day notification of intent to sign agreement</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>The next step after negotiations conclude — or as they are nearing their finish — is for the U.S. to formally notify Congress that it intends to sign a new deal. House Speaker Paul Ryan made headlines when he said in May that Congress would need that paper in hand by May 17 if the administration wanted any hope of passing the agreement through the current Congress, but he later said there was “some wiggle room” on that deadline.</t>
+  </si>
+  <si>
+    <t>30 days after notification of intention to sign, submission of Advisory Committee reports</t>
+  </si>
+  <si>
+    <t>TPA calls for the formation of a handful of advisory groups comprised of representatives from local and state governments, agriculture, industry and elsewhere who help ensure that private and public stakeholders have a say over trade policy. No later than 30 days after notifying Congress that it intends to sign the agreement, the U.S. trade office is required to submit to Congress from the various committees reports detailing their views on the potential impacts of an agreement.</t>
+  </si>
+  <si>
+    <t>60 days prior to signing, release of agreement text</t>
+  </si>
+  <si>
+    <t>The administration is required to make the text of the updated deal publicly available 60 calendar days before it plans to sign the agreement.</t>
   </si>
   <si>
     <t>Reporting and mock markup</t>
@@ -67,34 +100,37 @@
     <t>Agreement signed</t>
   </si>
   <si>
-    <t>Could take 60 days</t>
-  </si>
-  <si>
     <t>60 days after agreement is signed, list of required changes in law due</t>
   </si>
   <si>
-    <t>Could take 105 days</t>
-  </si>
-  <si>
-    <t>105 days after agreeement is signed USITC report due</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Could take 30 days</t>
-  </si>
-  <si>
-    <t>30 days prior to implementing legislation final agreement text, and draft SAA submitted</t>
+    <t xml:space="preserve">The administration will have up to 60 calendar days after the signing of the agreement to submit a list of changes to U.S. law that will be needed in order for the deal to take effect. </t>
+  </si>
+  <si>
+    <t>105 days after agreement is signed, U.S. ITC report due</t>
+  </si>
+  <si>
+    <t>The U.S. International Trade Commission is required to complete a report assessing the potential economic impact of the agreement, which must be made public. The requirement is one of the most flexible of all of those outlined under TPA: The ITC has up to 105 days after the agreement is signed to submit its report, but it could do so sooner. Some experts also believe the ITC can begin its analysis even before the agreement is signed, because the president is required to submit to the commission the details of the proposed deal 90 days prior to signing.</t>
+  </si>
+  <si>
+    <t>30 days prior to implementing legislation, final text and draft SAA submitted</t>
+  </si>
+  <si>
+    <t>The administration must submit to Congress the final text of the implementing legislation and a draft Statement of Administrative Action 30 days before it is formally introduced.</t>
   </si>
   <si>
     <t>Mock markups (optional, no time schedule)</t>
   </si>
   <si>
+    <t>The Senate Finance Committee and House Ways and Means Committee may provide advice to the administration on the contents of the implementing bill by holding hearings and a mock conference on the draft version. Though not required by statute, the advisory process is generally used as a way for Congress to communicate its preferences to the administration before the formal bill is put forward.</t>
+  </si>
+  <si>
     <t>Congressional Consideration and implementation</t>
   </si>
   <si>
-    <t>Implementing bill introduced in House and Senate (no deadline)</t>
+    <t>Implementing bill introduced in House and Senate</t>
+  </si>
+  <si>
+    <t>The Ways and Means and Finance Committees may take up to 45 days in session to report the bill back to the floor, and they may not amend it nor can they recommend amendments. If they do not report the bill after 45 session days it will be automatically discharged to the floor.</t>
   </si>
   <si>
     <t>Could take 45 days</t>
@@ -103,23 +139,57 @@
     <t>House Ways and Means must report bill</t>
   </si>
   <si>
+    <t>Consideration and implementation</t>
+  </si>
+  <si>
+    <t>Because most trade agreements affect tariffs, the implementing bill will be considered a revenue bill, which requires the House to act first.</t>
+  </si>
+  <si>
     <t>Could take 15 days</t>
   </si>
   <si>
     <t>House must vote on bill</t>
+  </si>
+  <si>
+    <t>The bill may be called up for consideration by any member of the House, and then debate will be limited to 20 hours. The bill needs support from a majority of members voting to pass, at which point it will go to the Senate.</t>
+  </si>
+  <si>
+    <t>Senate Finance Committee must report bill</t>
+  </si>
+  <si>
+    <t>The Finance committee will have up to 15 session days to consider the House bill before it is discharged.</t>
+  </si>
+  <si>
+    <t>Senate must vote on bill</t>
+  </si>
+  <si>
+    <t>Because neither chamber is allowed to add amendments to the bill, the version the Senate has received from the House will be identical to the one the Senate received initially. Any senator can then call up the bill for consideration without waiting for action from the majority leader. Debate is again limited to 20 hours and the bill can be passed with support from a majority of members voting.</t>
+  </si>
+  <si>
+    <t>Bill signed into public law</t>
+  </si>
+  <si>
+    <t>President implements agreement by proclamation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,6 +220,12 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -174,7 +250,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="129.14"/>
+    <col customWidth="1" min="6" max="6" width="129.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -196,7 +272,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -216,3216 +294,3301 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="b">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="b">
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="b">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="b">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="b">
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="b">
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="b">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="F16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="F17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="F18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="F19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20">
-      <c r="F20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21">
-      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22">
-      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23">
-      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24">
-      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25">
-      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26">
-      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27">
-      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28">
-      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29">
-      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30">
-      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31">
-      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32">
-      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33">
-      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34">
-      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35">
-      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36">
-      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37">
-      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38">
-      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39">
-      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40">
-      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41">
-      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42">
-      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43">
-      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44">
-      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45">
-      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46">
-      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47">
-      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48">
-      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49">
-      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50">
-      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51">
-      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52">
-      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53">
-      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54">
-      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55">
-      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56">
-      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57">
-      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58">
-      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59">
-      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60">
-      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61">
-      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62">
-      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63">
-      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64">
-      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65">
-      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66">
-      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67">
-      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68">
-      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69">
-      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70">
-      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71">
-      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72">
-      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73">
-      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74">
-      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75">
-      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76">
-      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77">
-      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78">
-      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79">
-      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80">
-      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81">
-      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82">
-      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83">
-      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84">
-      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85">
-      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86">
-      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87">
-      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88">
-      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89">
-      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90">
-      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91">
-      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92">
-      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93">
-      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94">
-      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95">
-      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96">
-      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97">
-      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98">
-      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99">
-      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100">
-      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101">
-      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102">
-      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103">
-      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104">
-      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105">
-      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106">
-      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107">
-      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108">
-      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109">
-      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110">
-      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111">
-      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112">
-      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113">
-      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114">
-      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115">
-      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116">
-      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
     </row>
     <row r="117">
-      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
     </row>
     <row r="118">
-      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119">
-      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
     </row>
     <row r="120">
-      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121">
-      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122">
-      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123">
-      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124">
-      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125">
-      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
     </row>
     <row r="126">
-      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
     </row>
     <row r="127">
-      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
     </row>
     <row r="128">
-      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129">
-      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
     </row>
     <row r="130">
-      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
     </row>
     <row r="131">
-      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
     </row>
     <row r="132">
-      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
     </row>
     <row r="133">
-      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
     </row>
     <row r="134">
-      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
     </row>
     <row r="135">
-      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
     </row>
     <row r="136">
-      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
     </row>
     <row r="137">
-      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
     </row>
     <row r="138">
-      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
     </row>
     <row r="139">
-      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
     </row>
     <row r="140">
-      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
     </row>
     <row r="141">
-      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
     </row>
     <row r="142">
-      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
     </row>
     <row r="143">
-      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
     </row>
     <row r="144">
-      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
     </row>
     <row r="145">
-      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
     </row>
     <row r="146">
-      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
     </row>
     <row r="147">
-      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
     </row>
     <row r="148">
-      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
     </row>
     <row r="149">
-      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
     </row>
     <row r="150">
-      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
     </row>
     <row r="151">
-      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
     </row>
     <row r="152">
-      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
     </row>
     <row r="153">
-      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
     </row>
     <row r="154">
-      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
     </row>
     <row r="155">
-      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
     </row>
     <row r="156">
-      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
     </row>
     <row r="157">
-      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
     </row>
     <row r="158">
-      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
     </row>
     <row r="159">
-      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
     </row>
     <row r="160">
-      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
     </row>
     <row r="161">
-      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
     </row>
     <row r="162">
-      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
     </row>
     <row r="163">
-      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
     </row>
     <row r="164">
-      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
     </row>
     <row r="165">
-      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
     </row>
     <row r="166">
-      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
     </row>
     <row r="167">
-      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
     </row>
     <row r="168">
-      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
     </row>
     <row r="169">
-      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
     </row>
     <row r="170">
-      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
     </row>
     <row r="171">
-      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
     </row>
     <row r="172">
-      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
     </row>
     <row r="173">
-      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
     </row>
     <row r="174">
-      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
     </row>
     <row r="175">
-      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
     </row>
     <row r="176">
-      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
     </row>
     <row r="177">
-      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
     </row>
     <row r="178">
-      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
     </row>
     <row r="179">
-      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
     </row>
     <row r="180">
-      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
     </row>
     <row r="181">
-      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
     </row>
     <row r="182">
-      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
     </row>
     <row r="183">
-      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
     </row>
     <row r="184">
-      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
     </row>
     <row r="185">
-      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
     </row>
     <row r="186">
-      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
     </row>
     <row r="187">
-      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
     </row>
     <row r="188">
-      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
     </row>
     <row r="189">
-      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
     </row>
     <row r="190">
-      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
     </row>
     <row r="191">
-      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
     </row>
     <row r="192">
-      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
     </row>
     <row r="193">
-      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
     </row>
     <row r="194">
-      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
     </row>
     <row r="195">
-      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
     </row>
     <row r="196">
-      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
     </row>
     <row r="197">
-      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
     </row>
     <row r="198">
-      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
     </row>
     <row r="199">
-      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
     </row>
     <row r="200">
-      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
     </row>
     <row r="201">
-      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
     </row>
     <row r="202">
-      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
     </row>
     <row r="203">
-      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
     </row>
     <row r="204">
-      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
     </row>
     <row r="205">
-      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
     </row>
     <row r="206">
-      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
     </row>
     <row r="207">
-      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
     </row>
     <row r="208">
-      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
     </row>
     <row r="209">
-      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
     </row>
     <row r="210">
-      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
     </row>
     <row r="211">
-      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
     </row>
     <row r="212">
-      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
     </row>
     <row r="213">
-      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
     </row>
     <row r="214">
-      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
     </row>
     <row r="215">
-      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
     </row>
     <row r="216">
-      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
     </row>
     <row r="217">
-      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
     </row>
     <row r="218">
-      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
     </row>
     <row r="219">
-      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
     </row>
     <row r="220">
-      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
     </row>
     <row r="221">
-      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
     </row>
     <row r="222">
-      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
     </row>
     <row r="223">
-      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
     </row>
     <row r="224">
-      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
     </row>
     <row r="225">
-      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
     </row>
     <row r="226">
-      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
     </row>
     <row r="227">
-      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
     </row>
     <row r="228">
-      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
     </row>
     <row r="229">
-      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
     </row>
     <row r="230">
-      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
     </row>
     <row r="231">
-      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
     </row>
     <row r="232">
-      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
     </row>
     <row r="233">
-      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
     </row>
     <row r="234">
-      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
     </row>
     <row r="235">
-      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
     </row>
     <row r="236">
-      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
     </row>
     <row r="237">
-      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
     </row>
     <row r="238">
-      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
     </row>
     <row r="239">
-      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
     </row>
     <row r="240">
-      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
     </row>
     <row r="241">
-      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
     </row>
     <row r="242">
-      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
     </row>
     <row r="243">
-      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
     </row>
     <row r="244">
-      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
     </row>
     <row r="245">
-      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
     </row>
     <row r="246">
-      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
     </row>
     <row r="247">
-      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
     </row>
     <row r="248">
-      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
     </row>
     <row r="249">
-      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
     </row>
     <row r="250">
-      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
     </row>
     <row r="251">
-      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
     </row>
     <row r="252">
-      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
     </row>
     <row r="253">
-      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
     </row>
     <row r="254">
-      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
     </row>
     <row r="255">
-      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
     </row>
     <row r="256">
-      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
     </row>
     <row r="257">
-      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
     </row>
     <row r="258">
-      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
     </row>
     <row r="259">
-      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
     </row>
     <row r="260">
-      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
     </row>
     <row r="261">
-      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
     </row>
     <row r="262">
-      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
     </row>
     <row r="263">
-      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
     </row>
     <row r="264">
-      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
     </row>
     <row r="265">
-      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
     </row>
     <row r="266">
-      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
     </row>
     <row r="267">
-      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
     </row>
     <row r="268">
-      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
     </row>
     <row r="269">
-      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
     </row>
     <row r="270">
-      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
     </row>
     <row r="271">
-      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
     </row>
     <row r="272">
-      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
     </row>
     <row r="273">
-      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
     </row>
     <row r="274">
-      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
     </row>
     <row r="275">
-      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
     </row>
     <row r="276">
-      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
     </row>
     <row r="277">
-      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
     </row>
     <row r="278">
-      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
     </row>
     <row r="279">
-      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
     </row>
     <row r="280">
-      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
     </row>
     <row r="281">
-      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
     </row>
     <row r="282">
-      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
     </row>
     <row r="283">
-      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
     </row>
     <row r="284">
-      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
     </row>
     <row r="285">
-      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
     </row>
     <row r="286">
-      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
     </row>
     <row r="287">
-      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
     </row>
     <row r="288">
-      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
     </row>
     <row r="289">
-      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
     </row>
     <row r="290">
-      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
     </row>
     <row r="291">
-      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
     </row>
     <row r="292">
-      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
     </row>
     <row r="293">
-      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
     </row>
     <row r="294">
-      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
     </row>
     <row r="295">
-      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
     </row>
     <row r="296">
-      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
     </row>
     <row r="297">
-      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
     </row>
     <row r="298">
-      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
     </row>
     <row r="299">
-      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
     </row>
     <row r="300">
-      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
     </row>
     <row r="301">
-      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
     </row>
     <row r="302">
-      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
     </row>
     <row r="303">
-      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
     </row>
     <row r="304">
-      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
     </row>
     <row r="305">
-      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
     </row>
     <row r="306">
-      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
     </row>
     <row r="307">
-      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
     </row>
     <row r="308">
-      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
     </row>
     <row r="309">
-      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
     </row>
     <row r="310">
-      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
     </row>
     <row r="311">
-      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
     </row>
     <row r="312">
-      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
     </row>
     <row r="313">
-      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
     </row>
     <row r="314">
-      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
     </row>
     <row r="315">
-      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
     </row>
     <row r="316">
-      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
     </row>
     <row r="317">
-      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
     </row>
     <row r="318">
-      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
     </row>
     <row r="319">
-      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
     </row>
     <row r="320">
-      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
     </row>
     <row r="321">
-      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
     </row>
     <row r="322">
-      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
     </row>
     <row r="323">
-      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
     </row>
     <row r="324">
-      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
     </row>
     <row r="325">
-      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
     </row>
     <row r="326">
-      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
     </row>
     <row r="327">
-      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
     </row>
     <row r="328">
-      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
     </row>
     <row r="329">
-      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
     </row>
     <row r="330">
-      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
     </row>
     <row r="331">
-      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
     </row>
     <row r="332">
-      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
     </row>
     <row r="333">
-      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
     </row>
     <row r="334">
-      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
     </row>
     <row r="335">
-      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
     </row>
     <row r="336">
-      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
     </row>
     <row r="337">
-      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
     </row>
     <row r="338">
-      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
     </row>
     <row r="339">
-      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
     </row>
     <row r="340">
-      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
     </row>
     <row r="341">
-      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
     </row>
     <row r="342">
-      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
     </row>
     <row r="343">
-      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
     </row>
     <row r="344">
-      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
     </row>
     <row r="345">
-      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
     </row>
     <row r="346">
-      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
     </row>
     <row r="347">
-      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
     </row>
     <row r="348">
-      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
     </row>
     <row r="349">
-      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
     </row>
     <row r="350">
-      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
     </row>
     <row r="351">
-      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
     </row>
     <row r="352">
-      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
     </row>
     <row r="353">
-      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
     </row>
     <row r="354">
-      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
     </row>
     <row r="355">
-      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
     </row>
     <row r="356">
-      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
     </row>
     <row r="357">
-      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
     </row>
     <row r="358">
-      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
     </row>
     <row r="359">
-      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
     </row>
     <row r="360">
-      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
     </row>
     <row r="361">
-      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
     </row>
     <row r="362">
-      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
     </row>
     <row r="363">
-      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
     </row>
     <row r="364">
-      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
     </row>
     <row r="365">
-      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
     </row>
     <row r="366">
-      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
     </row>
     <row r="367">
-      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
     </row>
     <row r="368">
-      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
     </row>
     <row r="369">
-      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
     </row>
     <row r="370">
-      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
     </row>
     <row r="371">
-      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
     </row>
     <row r="372">
-      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
     </row>
     <row r="373">
-      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
     </row>
     <row r="374">
-      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
     </row>
     <row r="375">
-      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
     </row>
     <row r="376">
-      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
     </row>
     <row r="377">
-      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
     </row>
     <row r="378">
-      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
     </row>
     <row r="379">
-      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
     </row>
     <row r="380">
-      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
     </row>
     <row r="381">
-      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
     </row>
     <row r="382">
-      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
     </row>
     <row r="383">
-      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
     </row>
     <row r="384">
-      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
     </row>
     <row r="385">
-      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
     </row>
     <row r="386">
-      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
     </row>
     <row r="387">
-      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
     </row>
     <row r="388">
-      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
     </row>
     <row r="389">
-      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
     </row>
     <row r="390">
-      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
     </row>
     <row r="391">
-      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
     </row>
     <row r="392">
-      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
     </row>
     <row r="393">
-      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
     </row>
     <row r="394">
-      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
     </row>
     <row r="395">
-      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
     </row>
     <row r="396">
-      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
     </row>
     <row r="397">
-      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
     </row>
     <row r="398">
-      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
     </row>
     <row r="399">
-      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
     </row>
     <row r="400">
-      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
     </row>
     <row r="401">
-      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
     </row>
     <row r="402">
-      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
     </row>
     <row r="403">
-      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
     </row>
     <row r="404">
-      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
     </row>
     <row r="405">
-      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
     </row>
     <row r="406">
-      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
     </row>
     <row r="407">
-      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
     </row>
     <row r="408">
-      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
     </row>
     <row r="409">
-      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
     </row>
     <row r="410">
-      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
     </row>
     <row r="411">
-      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
     </row>
     <row r="412">
-      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
     </row>
     <row r="413">
-      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
     </row>
     <row r="414">
-      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
     </row>
     <row r="415">
-      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
     </row>
     <row r="416">
-      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
     </row>
     <row r="417">
-      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
     </row>
     <row r="418">
-      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
     </row>
     <row r="419">
-      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
     </row>
     <row r="420">
-      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
     </row>
     <row r="421">
-      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
     </row>
     <row r="422">
-      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
     </row>
     <row r="423">
-      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
     </row>
     <row r="424">
-      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
     </row>
     <row r="425">
-      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
     </row>
     <row r="426">
-      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
     </row>
     <row r="427">
-      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
     </row>
     <row r="428">
-      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
     </row>
     <row r="429">
-      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
     </row>
     <row r="430">
-      <c r="F430" s="2"/>
+      <c r="G430" s="2"/>
     </row>
     <row r="431">
-      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
     </row>
     <row r="432">
-      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
     </row>
     <row r="433">
-      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
     </row>
     <row r="434">
-      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
     </row>
     <row r="435">
-      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
     </row>
     <row r="436">
-      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
     </row>
     <row r="437">
-      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
     </row>
     <row r="438">
-      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
     </row>
     <row r="439">
-      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
     </row>
     <row r="440">
-      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
     </row>
     <row r="441">
-      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
     </row>
     <row r="442">
-      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
     </row>
     <row r="443">
-      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
     </row>
     <row r="444">
-      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
     </row>
     <row r="445">
-      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
     </row>
     <row r="446">
-      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
     </row>
     <row r="447">
-      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
     </row>
     <row r="448">
-      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
     </row>
     <row r="449">
-      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
     </row>
     <row r="450">
-      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
     </row>
     <row r="451">
-      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
     </row>
     <row r="452">
-      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
     </row>
     <row r="453">
-      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
     </row>
     <row r="454">
-      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
     </row>
     <row r="455">
-      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
     </row>
     <row r="456">
-      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
     </row>
     <row r="457">
-      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
     </row>
     <row r="458">
-      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
     </row>
     <row r="459">
-      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
     </row>
     <row r="460">
-      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
     </row>
     <row r="461">
-      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
     </row>
     <row r="462">
-      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
     </row>
     <row r="463">
-      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
     </row>
     <row r="464">
-      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
     </row>
     <row r="465">
-      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
     </row>
     <row r="466">
-      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
     </row>
     <row r="467">
-      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
     </row>
     <row r="468">
-      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
     </row>
     <row r="469">
-      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
     </row>
     <row r="470">
-      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
     </row>
     <row r="471">
-      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
     </row>
     <row r="472">
-      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
     </row>
     <row r="473">
-      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
     </row>
     <row r="474">
-      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
     </row>
     <row r="475">
-      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
     </row>
     <row r="476">
-      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
     </row>
     <row r="477">
-      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
     </row>
     <row r="478">
-      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
     </row>
     <row r="479">
-      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
     </row>
     <row r="480">
-      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
     </row>
     <row r="481">
-      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
     </row>
     <row r="482">
-      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
     </row>
     <row r="483">
-      <c r="F483" s="2"/>
+      <c r="G483" s="2"/>
     </row>
     <row r="484">
-      <c r="F484" s="2"/>
+      <c r="G484" s="2"/>
     </row>
     <row r="485">
-      <c r="F485" s="2"/>
+      <c r="G485" s="2"/>
     </row>
     <row r="486">
-      <c r="F486" s="2"/>
+      <c r="G486" s="2"/>
     </row>
     <row r="487">
-      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
     </row>
     <row r="488">
-      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
     </row>
     <row r="489">
-      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
     </row>
     <row r="490">
-      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
     </row>
     <row r="491">
-      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
     </row>
     <row r="492">
-      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
     </row>
     <row r="493">
-      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
     </row>
     <row r="494">
-      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
     </row>
     <row r="495">
-      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
     </row>
     <row r="496">
-      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
     </row>
     <row r="497">
-      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
     </row>
     <row r="498">
-      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
     </row>
     <row r="499">
-      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
     </row>
     <row r="500">
-      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
     </row>
     <row r="501">
-      <c r="F501" s="2"/>
+      <c r="G501" s="2"/>
     </row>
     <row r="502">
-      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
     </row>
     <row r="503">
-      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
     </row>
     <row r="504">
-      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
     </row>
     <row r="505">
-      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
     </row>
     <row r="506">
-      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
     </row>
     <row r="507">
-      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
     </row>
     <row r="508">
-      <c r="F508" s="2"/>
+      <c r="G508" s="2"/>
     </row>
     <row r="509">
-      <c r="F509" s="2"/>
+      <c r="G509" s="2"/>
     </row>
     <row r="510">
-      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
     </row>
     <row r="511">
-      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
     </row>
     <row r="512">
-      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
     </row>
     <row r="513">
-      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
     </row>
     <row r="514">
-      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
     </row>
     <row r="515">
-      <c r="F515" s="2"/>
+      <c r="G515" s="2"/>
     </row>
     <row r="516">
-      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
     </row>
     <row r="517">
-      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
     </row>
     <row r="518">
-      <c r="F518" s="2"/>
+      <c r="G518" s="2"/>
     </row>
     <row r="519">
-      <c r="F519" s="2"/>
+      <c r="G519" s="2"/>
     </row>
     <row r="520">
-      <c r="F520" s="2"/>
+      <c r="G520" s="2"/>
     </row>
     <row r="521">
-      <c r="F521" s="2"/>
+      <c r="G521" s="2"/>
     </row>
     <row r="522">
-      <c r="F522" s="2"/>
+      <c r="G522" s="2"/>
     </row>
     <row r="523">
-      <c r="F523" s="2"/>
+      <c r="G523" s="2"/>
     </row>
     <row r="524">
-      <c r="F524" s="2"/>
+      <c r="G524" s="2"/>
     </row>
     <row r="525">
-      <c r="F525" s="2"/>
+      <c r="G525" s="2"/>
     </row>
     <row r="526">
-      <c r="F526" s="2"/>
+      <c r="G526" s="2"/>
     </row>
     <row r="527">
-      <c r="F527" s="2"/>
+      <c r="G527" s="2"/>
     </row>
     <row r="528">
-      <c r="F528" s="2"/>
+      <c r="G528" s="2"/>
     </row>
     <row r="529">
-      <c r="F529" s="2"/>
+      <c r="G529" s="2"/>
     </row>
     <row r="530">
-      <c r="F530" s="2"/>
+      <c r="G530" s="2"/>
     </row>
     <row r="531">
-      <c r="F531" s="2"/>
+      <c r="G531" s="2"/>
     </row>
     <row r="532">
-      <c r="F532" s="2"/>
+      <c r="G532" s="2"/>
     </row>
     <row r="533">
-      <c r="F533" s="2"/>
+      <c r="G533" s="2"/>
     </row>
     <row r="534">
-      <c r="F534" s="2"/>
+      <c r="G534" s="2"/>
     </row>
     <row r="535">
-      <c r="F535" s="2"/>
+      <c r="G535" s="2"/>
     </row>
     <row r="536">
-      <c r="F536" s="2"/>
+      <c r="G536" s="2"/>
     </row>
     <row r="537">
-      <c r="F537" s="2"/>
+      <c r="G537" s="2"/>
     </row>
     <row r="538">
-      <c r="F538" s="2"/>
+      <c r="G538" s="2"/>
     </row>
     <row r="539">
-      <c r="F539" s="2"/>
+      <c r="G539" s="2"/>
     </row>
     <row r="540">
-      <c r="F540" s="2"/>
+      <c r="G540" s="2"/>
     </row>
     <row r="541">
-      <c r="F541" s="2"/>
+      <c r="G541" s="2"/>
     </row>
     <row r="542">
-      <c r="F542" s="2"/>
+      <c r="G542" s="2"/>
     </row>
     <row r="543">
-      <c r="F543" s="2"/>
+      <c r="G543" s="2"/>
     </row>
     <row r="544">
-      <c r="F544" s="2"/>
+      <c r="G544" s="2"/>
     </row>
     <row r="545">
-      <c r="F545" s="2"/>
+      <c r="G545" s="2"/>
     </row>
     <row r="546">
-      <c r="F546" s="2"/>
+      <c r="G546" s="2"/>
     </row>
     <row r="547">
-      <c r="F547" s="2"/>
+      <c r="G547" s="2"/>
     </row>
     <row r="548">
-      <c r="F548" s="2"/>
+      <c r="G548" s="2"/>
     </row>
     <row r="549">
-      <c r="F549" s="2"/>
+      <c r="G549" s="2"/>
     </row>
     <row r="550">
-      <c r="F550" s="2"/>
+      <c r="G550" s="2"/>
     </row>
     <row r="551">
-      <c r="F551" s="2"/>
+      <c r="G551" s="2"/>
     </row>
     <row r="552">
-      <c r="F552" s="2"/>
+      <c r="G552" s="2"/>
     </row>
     <row r="553">
-      <c r="F553" s="2"/>
+      <c r="G553" s="2"/>
     </row>
     <row r="554">
-      <c r="F554" s="2"/>
+      <c r="G554" s="2"/>
     </row>
     <row r="555">
-      <c r="F555" s="2"/>
+      <c r="G555" s="2"/>
     </row>
     <row r="556">
-      <c r="F556" s="2"/>
+      <c r="G556" s="2"/>
     </row>
     <row r="557">
-      <c r="F557" s="2"/>
+      <c r="G557" s="2"/>
     </row>
     <row r="558">
-      <c r="F558" s="2"/>
+      <c r="G558" s="2"/>
     </row>
     <row r="559">
-      <c r="F559" s="2"/>
+      <c r="G559" s="2"/>
     </row>
     <row r="560">
-      <c r="F560" s="2"/>
+      <c r="G560" s="2"/>
     </row>
     <row r="561">
-      <c r="F561" s="2"/>
+      <c r="G561" s="2"/>
     </row>
     <row r="562">
-      <c r="F562" s="2"/>
+      <c r="G562" s="2"/>
     </row>
     <row r="563">
-      <c r="F563" s="2"/>
+      <c r="G563" s="2"/>
     </row>
     <row r="564">
-      <c r="F564" s="2"/>
+      <c r="G564" s="2"/>
     </row>
     <row r="565">
-      <c r="F565" s="2"/>
+      <c r="G565" s="2"/>
     </row>
     <row r="566">
-      <c r="F566" s="2"/>
+      <c r="G566" s="2"/>
     </row>
     <row r="567">
-      <c r="F567" s="2"/>
+      <c r="G567" s="2"/>
     </row>
     <row r="568">
-      <c r="F568" s="2"/>
+      <c r="G568" s="2"/>
     </row>
     <row r="569">
-      <c r="F569" s="2"/>
+      <c r="G569" s="2"/>
     </row>
     <row r="570">
-      <c r="F570" s="2"/>
+      <c r="G570" s="2"/>
     </row>
     <row r="571">
-      <c r="F571" s="2"/>
+      <c r="G571" s="2"/>
     </row>
     <row r="572">
-      <c r="F572" s="2"/>
+      <c r="G572" s="2"/>
     </row>
     <row r="573">
-      <c r="F573" s="2"/>
+      <c r="G573" s="2"/>
     </row>
     <row r="574">
-      <c r="F574" s="2"/>
+      <c r="G574" s="2"/>
     </row>
     <row r="575">
-      <c r="F575" s="2"/>
+      <c r="G575" s="2"/>
     </row>
     <row r="576">
-      <c r="F576" s="2"/>
+      <c r="G576" s="2"/>
     </row>
     <row r="577">
-      <c r="F577" s="2"/>
+      <c r="G577" s="2"/>
     </row>
     <row r="578">
-      <c r="F578" s="2"/>
+      <c r="G578" s="2"/>
     </row>
     <row r="579">
-      <c r="F579" s="2"/>
+      <c r="G579" s="2"/>
     </row>
     <row r="580">
-      <c r="F580" s="2"/>
+      <c r="G580" s="2"/>
     </row>
     <row r="581">
-      <c r="F581" s="2"/>
+      <c r="G581" s="2"/>
     </row>
     <row r="582">
-      <c r="F582" s="2"/>
+      <c r="G582" s="2"/>
     </row>
     <row r="583">
-      <c r="F583" s="2"/>
+      <c r="G583" s="2"/>
     </row>
     <row r="584">
-      <c r="F584" s="2"/>
+      <c r="G584" s="2"/>
     </row>
     <row r="585">
-      <c r="F585" s="2"/>
+      <c r="G585" s="2"/>
     </row>
     <row r="586">
-      <c r="F586" s="2"/>
+      <c r="G586" s="2"/>
     </row>
     <row r="587">
-      <c r="F587" s="2"/>
+      <c r="G587" s="2"/>
     </row>
     <row r="588">
-      <c r="F588" s="2"/>
+      <c r="G588" s="2"/>
     </row>
     <row r="589">
-      <c r="F589" s="2"/>
+      <c r="G589" s="2"/>
     </row>
     <row r="590">
-      <c r="F590" s="2"/>
+      <c r="G590" s="2"/>
     </row>
     <row r="591">
-      <c r="F591" s="2"/>
+      <c r="G591" s="2"/>
     </row>
     <row r="592">
-      <c r="F592" s="2"/>
+      <c r="G592" s="2"/>
     </row>
     <row r="593">
-      <c r="F593" s="2"/>
+      <c r="G593" s="2"/>
     </row>
     <row r="594">
-      <c r="F594" s="2"/>
+      <c r="G594" s="2"/>
     </row>
     <row r="595">
-      <c r="F595" s="2"/>
+      <c r="G595" s="2"/>
     </row>
     <row r="596">
-      <c r="F596" s="2"/>
+      <c r="G596" s="2"/>
     </row>
     <row r="597">
-      <c r="F597" s="2"/>
+      <c r="G597" s="2"/>
     </row>
     <row r="598">
-      <c r="F598" s="2"/>
+      <c r="G598" s="2"/>
     </row>
     <row r="599">
-      <c r="F599" s="2"/>
+      <c r="G599" s="2"/>
     </row>
     <row r="600">
-      <c r="F600" s="2"/>
+      <c r="G600" s="2"/>
     </row>
     <row r="601">
-      <c r="F601" s="2"/>
+      <c r="G601" s="2"/>
     </row>
     <row r="602">
-      <c r="F602" s="2"/>
+      <c r="G602" s="2"/>
     </row>
     <row r="603">
-      <c r="F603" s="2"/>
+      <c r="G603" s="2"/>
     </row>
     <row r="604">
-      <c r="F604" s="2"/>
+      <c r="G604" s="2"/>
     </row>
     <row r="605">
-      <c r="F605" s="2"/>
+      <c r="G605" s="2"/>
     </row>
     <row r="606">
-      <c r="F606" s="2"/>
+      <c r="G606" s="2"/>
     </row>
     <row r="607">
-      <c r="F607" s="2"/>
+      <c r="G607" s="2"/>
     </row>
     <row r="608">
-      <c r="F608" s="2"/>
+      <c r="G608" s="2"/>
     </row>
     <row r="609">
-      <c r="F609" s="2"/>
+      <c r="G609" s="2"/>
     </row>
     <row r="610">
-      <c r="F610" s="2"/>
+      <c r="G610" s="2"/>
     </row>
     <row r="611">
-      <c r="F611" s="2"/>
+      <c r="G611" s="2"/>
     </row>
     <row r="612">
-      <c r="F612" s="2"/>
+      <c r="G612" s="2"/>
     </row>
     <row r="613">
-      <c r="F613" s="2"/>
+      <c r="G613" s="2"/>
     </row>
     <row r="614">
-      <c r="F614" s="2"/>
+      <c r="G614" s="2"/>
     </row>
     <row r="615">
-      <c r="F615" s="2"/>
+      <c r="G615" s="2"/>
     </row>
     <row r="616">
-      <c r="F616" s="2"/>
+      <c r="G616" s="2"/>
     </row>
     <row r="617">
-      <c r="F617" s="2"/>
+      <c r="G617" s="2"/>
     </row>
     <row r="618">
-      <c r="F618" s="2"/>
+      <c r="G618" s="2"/>
     </row>
     <row r="619">
-      <c r="F619" s="2"/>
+      <c r="G619" s="2"/>
     </row>
     <row r="620">
-      <c r="F620" s="2"/>
+      <c r="G620" s="2"/>
     </row>
     <row r="621">
-      <c r="F621" s="2"/>
+      <c r="G621" s="2"/>
     </row>
     <row r="622">
-      <c r="F622" s="2"/>
+      <c r="G622" s="2"/>
     </row>
     <row r="623">
-      <c r="F623" s="2"/>
+      <c r="G623" s="2"/>
     </row>
     <row r="624">
-      <c r="F624" s="2"/>
+      <c r="G624" s="2"/>
     </row>
     <row r="625">
-      <c r="F625" s="2"/>
+      <c r="G625" s="2"/>
     </row>
     <row r="626">
-      <c r="F626" s="2"/>
+      <c r="G626" s="2"/>
     </row>
     <row r="627">
-      <c r="F627" s="2"/>
+      <c r="G627" s="2"/>
     </row>
     <row r="628">
-      <c r="F628" s="2"/>
+      <c r="G628" s="2"/>
     </row>
     <row r="629">
-      <c r="F629" s="2"/>
+      <c r="G629" s="2"/>
     </row>
     <row r="630">
-      <c r="F630" s="2"/>
+      <c r="G630" s="2"/>
     </row>
     <row r="631">
-      <c r="F631" s="2"/>
+      <c r="G631" s="2"/>
     </row>
     <row r="632">
-      <c r="F632" s="2"/>
+      <c r="G632" s="2"/>
     </row>
     <row r="633">
-      <c r="F633" s="2"/>
+      <c r="G633" s="2"/>
     </row>
     <row r="634">
-      <c r="F634" s="2"/>
+      <c r="G634" s="2"/>
     </row>
     <row r="635">
-      <c r="F635" s="2"/>
+      <c r="G635" s="2"/>
     </row>
     <row r="636">
-      <c r="F636" s="2"/>
+      <c r="G636" s="2"/>
     </row>
     <row r="637">
-      <c r="F637" s="2"/>
+      <c r="G637" s="2"/>
     </row>
     <row r="638">
-      <c r="F638" s="2"/>
+      <c r="G638" s="2"/>
     </row>
     <row r="639">
-      <c r="F639" s="2"/>
+      <c r="G639" s="2"/>
     </row>
     <row r="640">
-      <c r="F640" s="2"/>
+      <c r="G640" s="2"/>
     </row>
     <row r="641">
-      <c r="F641" s="2"/>
+      <c r="G641" s="2"/>
     </row>
     <row r="642">
-      <c r="F642" s="2"/>
+      <c r="G642" s="2"/>
     </row>
     <row r="643">
-      <c r="F643" s="2"/>
+      <c r="G643" s="2"/>
     </row>
     <row r="644">
-      <c r="F644" s="2"/>
+      <c r="G644" s="2"/>
     </row>
     <row r="645">
-      <c r="F645" s="2"/>
+      <c r="G645" s="2"/>
     </row>
     <row r="646">
-      <c r="F646" s="2"/>
+      <c r="G646" s="2"/>
     </row>
     <row r="647">
-      <c r="F647" s="2"/>
+      <c r="G647" s="2"/>
     </row>
     <row r="648">
-      <c r="F648" s="2"/>
+      <c r="G648" s="2"/>
     </row>
     <row r="649">
-      <c r="F649" s="2"/>
+      <c r="G649" s="2"/>
     </row>
     <row r="650">
-      <c r="F650" s="2"/>
+      <c r="G650" s="2"/>
     </row>
     <row r="651">
-      <c r="F651" s="2"/>
+      <c r="G651" s="2"/>
     </row>
     <row r="652">
-      <c r="F652" s="2"/>
+      <c r="G652" s="2"/>
     </row>
     <row r="653">
-      <c r="F653" s="2"/>
+      <c r="G653" s="2"/>
     </row>
     <row r="654">
-      <c r="F654" s="2"/>
+      <c r="G654" s="2"/>
     </row>
     <row r="655">
-      <c r="F655" s="2"/>
+      <c r="G655" s="2"/>
     </row>
     <row r="656">
-      <c r="F656" s="2"/>
+      <c r="G656" s="2"/>
     </row>
     <row r="657">
-      <c r="F657" s="2"/>
+      <c r="G657" s="2"/>
     </row>
     <row r="658">
-      <c r="F658" s="2"/>
+      <c r="G658" s="2"/>
     </row>
     <row r="659">
-      <c r="F659" s="2"/>
+      <c r="G659" s="2"/>
     </row>
     <row r="660">
-      <c r="F660" s="2"/>
+      <c r="G660" s="2"/>
     </row>
     <row r="661">
-      <c r="F661" s="2"/>
+      <c r="G661" s="2"/>
     </row>
     <row r="662">
-      <c r="F662" s="2"/>
+      <c r="G662" s="2"/>
     </row>
     <row r="663">
-      <c r="F663" s="2"/>
+      <c r="G663" s="2"/>
     </row>
     <row r="664">
-      <c r="F664" s="2"/>
+      <c r="G664" s="2"/>
     </row>
     <row r="665">
-      <c r="F665" s="2"/>
+      <c r="G665" s="2"/>
     </row>
     <row r="666">
-      <c r="F666" s="2"/>
+      <c r="G666" s="2"/>
     </row>
     <row r="667">
-      <c r="F667" s="2"/>
+      <c r="G667" s="2"/>
     </row>
     <row r="668">
-      <c r="F668" s="2"/>
+      <c r="G668" s="2"/>
     </row>
     <row r="669">
-      <c r="F669" s="2"/>
+      <c r="G669" s="2"/>
     </row>
     <row r="670">
-      <c r="F670" s="2"/>
+      <c r="G670" s="2"/>
     </row>
     <row r="671">
-      <c r="F671" s="2"/>
+      <c r="G671" s="2"/>
     </row>
     <row r="672">
-      <c r="F672" s="2"/>
+      <c r="G672" s="2"/>
     </row>
     <row r="673">
-      <c r="F673" s="2"/>
+      <c r="G673" s="2"/>
     </row>
     <row r="674">
-      <c r="F674" s="2"/>
+      <c r="G674" s="2"/>
     </row>
     <row r="675">
-      <c r="F675" s="2"/>
+      <c r="G675" s="2"/>
     </row>
     <row r="676">
-      <c r="F676" s="2"/>
+      <c r="G676" s="2"/>
     </row>
     <row r="677">
-      <c r="F677" s="2"/>
+      <c r="G677" s="2"/>
     </row>
     <row r="678">
-      <c r="F678" s="2"/>
+      <c r="G678" s="2"/>
     </row>
     <row r="679">
-      <c r="F679" s="2"/>
+      <c r="G679" s="2"/>
     </row>
     <row r="680">
-      <c r="F680" s="2"/>
+      <c r="G680" s="2"/>
     </row>
     <row r="681">
-      <c r="F681" s="2"/>
+      <c r="G681" s="2"/>
     </row>
     <row r="682">
-      <c r="F682" s="2"/>
+      <c r="G682" s="2"/>
     </row>
     <row r="683">
-      <c r="F683" s="2"/>
+      <c r="G683" s="2"/>
     </row>
     <row r="684">
-      <c r="F684" s="2"/>
+      <c r="G684" s="2"/>
     </row>
     <row r="685">
-      <c r="F685" s="2"/>
+      <c r="G685" s="2"/>
     </row>
     <row r="686">
-      <c r="F686" s="2"/>
+      <c r="G686" s="2"/>
     </row>
     <row r="687">
-      <c r="F687" s="2"/>
+      <c r="G687" s="2"/>
     </row>
     <row r="688">
-      <c r="F688" s="2"/>
+      <c r="G688" s="2"/>
     </row>
     <row r="689">
-      <c r="F689" s="2"/>
+      <c r="G689" s="2"/>
     </row>
     <row r="690">
-      <c r="F690" s="2"/>
+      <c r="G690" s="2"/>
     </row>
     <row r="691">
-      <c r="F691" s="2"/>
+      <c r="G691" s="2"/>
     </row>
     <row r="692">
-      <c r="F692" s="2"/>
+      <c r="G692" s="2"/>
     </row>
     <row r="693">
-      <c r="F693" s="2"/>
+      <c r="G693" s="2"/>
     </row>
     <row r="694">
-      <c r="F694" s="2"/>
+      <c r="G694" s="2"/>
     </row>
     <row r="695">
-      <c r="F695" s="2"/>
+      <c r="G695" s="2"/>
     </row>
     <row r="696">
-      <c r="F696" s="2"/>
+      <c r="G696" s="2"/>
     </row>
     <row r="697">
-      <c r="F697" s="2"/>
+      <c r="G697" s="2"/>
     </row>
     <row r="698">
-      <c r="F698" s="2"/>
+      <c r="G698" s="2"/>
     </row>
     <row r="699">
-      <c r="F699" s="2"/>
+      <c r="G699" s="2"/>
     </row>
     <row r="700">
-      <c r="F700" s="2"/>
+      <c r="G700" s="2"/>
     </row>
     <row r="701">
-      <c r="F701" s="2"/>
+      <c r="G701" s="2"/>
     </row>
     <row r="702">
-      <c r="F702" s="2"/>
+      <c r="G702" s="2"/>
     </row>
     <row r="703">
-      <c r="F703" s="2"/>
+      <c r="G703" s="2"/>
     </row>
     <row r="704">
-      <c r="F704" s="2"/>
+      <c r="G704" s="2"/>
     </row>
     <row r="705">
-      <c r="F705" s="2"/>
+      <c r="G705" s="2"/>
     </row>
     <row r="706">
-      <c r="F706" s="2"/>
+      <c r="G706" s="2"/>
     </row>
     <row r="707">
-      <c r="F707" s="2"/>
+      <c r="G707" s="2"/>
     </row>
     <row r="708">
-      <c r="F708" s="2"/>
+      <c r="G708" s="2"/>
     </row>
     <row r="709">
-      <c r="F709" s="2"/>
+      <c r="G709" s="2"/>
     </row>
     <row r="710">
-      <c r="F710" s="2"/>
+      <c r="G710" s="2"/>
     </row>
     <row r="711">
-      <c r="F711" s="2"/>
+      <c r="G711" s="2"/>
     </row>
     <row r="712">
-      <c r="F712" s="2"/>
+      <c r="G712" s="2"/>
     </row>
     <row r="713">
-      <c r="F713" s="2"/>
+      <c r="G713" s="2"/>
     </row>
     <row r="714">
-      <c r="F714" s="2"/>
+      <c r="G714" s="2"/>
     </row>
     <row r="715">
-      <c r="F715" s="2"/>
+      <c r="G715" s="2"/>
     </row>
     <row r="716">
-      <c r="F716" s="2"/>
+      <c r="G716" s="2"/>
     </row>
     <row r="717">
-      <c r="F717" s="2"/>
+      <c r="G717" s="2"/>
     </row>
     <row r="718">
-      <c r="F718" s="2"/>
+      <c r="G718" s="2"/>
     </row>
     <row r="719">
-      <c r="F719" s="2"/>
+      <c r="G719" s="2"/>
     </row>
     <row r="720">
-      <c r="F720" s="2"/>
+      <c r="G720" s="2"/>
     </row>
     <row r="721">
-      <c r="F721" s="2"/>
+      <c r="G721" s="2"/>
     </row>
     <row r="722">
-      <c r="F722" s="2"/>
+      <c r="G722" s="2"/>
     </row>
     <row r="723">
-      <c r="F723" s="2"/>
+      <c r="G723" s="2"/>
     </row>
     <row r="724">
-      <c r="F724" s="2"/>
+      <c r="G724" s="2"/>
     </row>
     <row r="725">
-      <c r="F725" s="2"/>
+      <c r="G725" s="2"/>
     </row>
     <row r="726">
-      <c r="F726" s="2"/>
+      <c r="G726" s="2"/>
     </row>
     <row r="727">
-      <c r="F727" s="2"/>
+      <c r="G727" s="2"/>
     </row>
     <row r="728">
-      <c r="F728" s="2"/>
+      <c r="G728" s="2"/>
     </row>
     <row r="729">
-      <c r="F729" s="2"/>
+      <c r="G729" s="2"/>
     </row>
     <row r="730">
-      <c r="F730" s="2"/>
+      <c r="G730" s="2"/>
     </row>
     <row r="731">
-      <c r="F731" s="2"/>
+      <c r="G731" s="2"/>
     </row>
     <row r="732">
-      <c r="F732" s="2"/>
+      <c r="G732" s="2"/>
     </row>
     <row r="733">
-      <c r="F733" s="2"/>
+      <c r="G733" s="2"/>
     </row>
     <row r="734">
-      <c r="F734" s="2"/>
+      <c r="G734" s="2"/>
     </row>
     <row r="735">
-      <c r="F735" s="2"/>
+      <c r="G735" s="2"/>
     </row>
     <row r="736">
-      <c r="F736" s="2"/>
+      <c r="G736" s="2"/>
     </row>
     <row r="737">
-      <c r="F737" s="2"/>
+      <c r="G737" s="2"/>
     </row>
     <row r="738">
-      <c r="F738" s="2"/>
+      <c r="G738" s="2"/>
     </row>
     <row r="739">
-      <c r="F739" s="2"/>
+      <c r="G739" s="2"/>
     </row>
     <row r="740">
-      <c r="F740" s="2"/>
+      <c r="G740" s="2"/>
     </row>
     <row r="741">
-      <c r="F741" s="2"/>
+      <c r="G741" s="2"/>
     </row>
     <row r="742">
-      <c r="F742" s="2"/>
+      <c r="G742" s="2"/>
     </row>
     <row r="743">
-      <c r="F743" s="2"/>
+      <c r="G743" s="2"/>
     </row>
     <row r="744">
-      <c r="F744" s="2"/>
+      <c r="G744" s="2"/>
     </row>
     <row r="745">
-      <c r="F745" s="2"/>
+      <c r="G745" s="2"/>
     </row>
     <row r="746">
-      <c r="F746" s="2"/>
+      <c r="G746" s="2"/>
     </row>
     <row r="747">
-      <c r="F747" s="2"/>
+      <c r="G747" s="2"/>
     </row>
     <row r="748">
-      <c r="F748" s="2"/>
+      <c r="G748" s="2"/>
     </row>
     <row r="749">
-      <c r="F749" s="2"/>
+      <c r="G749" s="2"/>
     </row>
     <row r="750">
-      <c r="F750" s="2"/>
+      <c r="G750" s="2"/>
     </row>
     <row r="751">
-      <c r="F751" s="2"/>
+      <c r="G751" s="2"/>
     </row>
     <row r="752">
-      <c r="F752" s="2"/>
+      <c r="G752" s="2"/>
     </row>
     <row r="753">
-      <c r="F753" s="2"/>
+      <c r="G753" s="2"/>
     </row>
     <row r="754">
-      <c r="F754" s="2"/>
+      <c r="G754" s="2"/>
     </row>
     <row r="755">
-      <c r="F755" s="2"/>
+      <c r="G755" s="2"/>
     </row>
     <row r="756">
-      <c r="F756" s="2"/>
+      <c r="G756" s="2"/>
     </row>
     <row r="757">
-      <c r="F757" s="2"/>
+      <c r="G757" s="2"/>
     </row>
     <row r="758">
-      <c r="F758" s="2"/>
+      <c r="G758" s="2"/>
     </row>
     <row r="759">
-      <c r="F759" s="2"/>
+      <c r="G759" s="2"/>
     </row>
     <row r="760">
-      <c r="F760" s="2"/>
+      <c r="G760" s="2"/>
     </row>
     <row r="761">
-      <c r="F761" s="2"/>
+      <c r="G761" s="2"/>
     </row>
     <row r="762">
-      <c r="F762" s="2"/>
+      <c r="G762" s="2"/>
     </row>
     <row r="763">
-      <c r="F763" s="2"/>
+      <c r="G763" s="2"/>
     </row>
     <row r="764">
-      <c r="F764" s="2"/>
+      <c r="G764" s="2"/>
     </row>
     <row r="765">
-      <c r="F765" s="2"/>
+      <c r="G765" s="2"/>
     </row>
     <row r="766">
-      <c r="F766" s="2"/>
+      <c r="G766" s="2"/>
     </row>
     <row r="767">
-      <c r="F767" s="2"/>
+      <c r="G767" s="2"/>
     </row>
     <row r="768">
-      <c r="F768" s="2"/>
+      <c r="G768" s="2"/>
     </row>
     <row r="769">
-      <c r="F769" s="2"/>
+      <c r="G769" s="2"/>
     </row>
     <row r="770">
-      <c r="F770" s="2"/>
+      <c r="G770" s="2"/>
     </row>
     <row r="771">
-      <c r="F771" s="2"/>
+      <c r="G771" s="2"/>
     </row>
     <row r="772">
-      <c r="F772" s="2"/>
+      <c r="G772" s="2"/>
     </row>
     <row r="773">
-      <c r="F773" s="2"/>
+      <c r="G773" s="2"/>
     </row>
     <row r="774">
-      <c r="F774" s="2"/>
+      <c r="G774" s="2"/>
     </row>
     <row r="775">
-      <c r="F775" s="2"/>
+      <c r="G775" s="2"/>
     </row>
     <row r="776">
-      <c r="F776" s="2"/>
+      <c r="G776" s="2"/>
     </row>
     <row r="777">
-      <c r="F777" s="2"/>
+      <c r="G777" s="2"/>
     </row>
     <row r="778">
-      <c r="F778" s="2"/>
+      <c r="G778" s="2"/>
     </row>
     <row r="779">
-      <c r="F779" s="2"/>
+      <c r="G779" s="2"/>
     </row>
     <row r="780">
-      <c r="F780" s="2"/>
+      <c r="G780" s="2"/>
     </row>
     <row r="781">
-      <c r="F781" s="2"/>
+      <c r="G781" s="2"/>
     </row>
     <row r="782">
-      <c r="F782" s="2"/>
+      <c r="G782" s="2"/>
     </row>
     <row r="783">
-      <c r="F783" s="2"/>
+      <c r="G783" s="2"/>
     </row>
     <row r="784">
-      <c r="F784" s="2"/>
+      <c r="G784" s="2"/>
     </row>
     <row r="785">
-      <c r="F785" s="2"/>
+      <c r="G785" s="2"/>
     </row>
     <row r="786">
-      <c r="F786" s="2"/>
+      <c r="G786" s="2"/>
     </row>
     <row r="787">
-      <c r="F787" s="2"/>
+      <c r="G787" s="2"/>
     </row>
     <row r="788">
-      <c r="F788" s="2"/>
+      <c r="G788" s="2"/>
     </row>
     <row r="789">
-      <c r="F789" s="2"/>
+      <c r="G789" s="2"/>
     </row>
     <row r="790">
-      <c r="F790" s="2"/>
+      <c r="G790" s="2"/>
     </row>
     <row r="791">
-      <c r="F791" s="2"/>
+      <c r="G791" s="2"/>
     </row>
     <row r="792">
-      <c r="F792" s="2"/>
+      <c r="G792" s="2"/>
     </row>
     <row r="793">
-      <c r="F793" s="2"/>
+      <c r="G793" s="2"/>
     </row>
     <row r="794">
-      <c r="F794" s="2"/>
+      <c r="G794" s="2"/>
     </row>
     <row r="795">
-      <c r="F795" s="2"/>
+      <c r="G795" s="2"/>
     </row>
     <row r="796">
-      <c r="F796" s="2"/>
+      <c r="G796" s="2"/>
     </row>
     <row r="797">
-      <c r="F797" s="2"/>
+      <c r="G797" s="2"/>
     </row>
     <row r="798">
-      <c r="F798" s="2"/>
+      <c r="G798" s="2"/>
     </row>
     <row r="799">
-      <c r="F799" s="2"/>
+      <c r="G799" s="2"/>
     </row>
     <row r="800">
-      <c r="F800" s="2"/>
+      <c r="G800" s="2"/>
     </row>
     <row r="801">
-      <c r="F801" s="2"/>
+      <c r="G801" s="2"/>
     </row>
     <row r="802">
-      <c r="F802" s="2"/>
+      <c r="G802" s="2"/>
     </row>
     <row r="803">
-      <c r="F803" s="2"/>
+      <c r="G803" s="2"/>
     </row>
     <row r="804">
-      <c r="F804" s="2"/>
+      <c r="G804" s="2"/>
     </row>
     <row r="805">
-      <c r="F805" s="2"/>
+      <c r="G805" s="2"/>
     </row>
     <row r="806">
-      <c r="F806" s="2"/>
+      <c r="G806" s="2"/>
     </row>
     <row r="807">
-      <c r="F807" s="2"/>
+      <c r="G807" s="2"/>
     </row>
     <row r="808">
-      <c r="F808" s="2"/>
+      <c r="G808" s="2"/>
     </row>
     <row r="809">
-      <c r="F809" s="2"/>
+      <c r="G809" s="2"/>
     </row>
     <row r="810">
-      <c r="F810" s="2"/>
+      <c r="G810" s="2"/>
     </row>
     <row r="811">
-      <c r="F811" s="2"/>
+      <c r="G811" s="2"/>
     </row>
     <row r="812">
-      <c r="F812" s="2"/>
+      <c r="G812" s="2"/>
     </row>
     <row r="813">
-      <c r="F813" s="2"/>
+      <c r="G813" s="2"/>
     </row>
     <row r="814">
-      <c r="F814" s="2"/>
+      <c r="G814" s="2"/>
     </row>
     <row r="815">
-      <c r="F815" s="2"/>
+      <c r="G815" s="2"/>
     </row>
     <row r="816">
-      <c r="F816" s="2"/>
+      <c r="G816" s="2"/>
     </row>
     <row r="817">
-      <c r="F817" s="2"/>
+      <c r="G817" s="2"/>
     </row>
     <row r="818">
-      <c r="F818" s="2"/>
+      <c r="G818" s="2"/>
     </row>
     <row r="819">
-      <c r="F819" s="2"/>
+      <c r="G819" s="2"/>
     </row>
     <row r="820">
-      <c r="F820" s="2"/>
+      <c r="G820" s="2"/>
     </row>
     <row r="821">
-      <c r="F821" s="2"/>
+      <c r="G821" s="2"/>
     </row>
     <row r="822">
-      <c r="F822" s="2"/>
+      <c r="G822" s="2"/>
     </row>
     <row r="823">
-      <c r="F823" s="2"/>
+      <c r="G823" s="2"/>
     </row>
     <row r="824">
-      <c r="F824" s="2"/>
+      <c r="G824" s="2"/>
     </row>
     <row r="825">
-      <c r="F825" s="2"/>
+      <c r="G825" s="2"/>
     </row>
     <row r="826">
-      <c r="F826" s="2"/>
+      <c r="G826" s="2"/>
     </row>
     <row r="827">
-      <c r="F827" s="2"/>
+      <c r="G827" s="2"/>
     </row>
     <row r="828">
-      <c r="F828" s="2"/>
+      <c r="G828" s="2"/>
     </row>
     <row r="829">
-      <c r="F829" s="2"/>
+      <c r="G829" s="2"/>
     </row>
     <row r="830">
-      <c r="F830" s="2"/>
+      <c r="G830" s="2"/>
     </row>
     <row r="831">
-      <c r="F831" s="2"/>
+      <c r="G831" s="2"/>
     </row>
     <row r="832">
-      <c r="F832" s="2"/>
+      <c r="G832" s="2"/>
     </row>
     <row r="833">
-      <c r="F833" s="2"/>
+      <c r="G833" s="2"/>
     </row>
     <row r="834">
-      <c r="F834" s="2"/>
+      <c r="G834" s="2"/>
     </row>
     <row r="835">
-      <c r="F835" s="2"/>
+      <c r="G835" s="2"/>
     </row>
     <row r="836">
-      <c r="F836" s="2"/>
+      <c r="G836" s="2"/>
     </row>
     <row r="837">
-      <c r="F837" s="2"/>
+      <c r="G837" s="2"/>
     </row>
     <row r="838">
-      <c r="F838" s="2"/>
+      <c r="G838" s="2"/>
     </row>
     <row r="839">
-      <c r="F839" s="2"/>
+      <c r="G839" s="2"/>
     </row>
     <row r="840">
-      <c r="F840" s="2"/>
+      <c r="G840" s="2"/>
     </row>
     <row r="841">
-      <c r="F841" s="2"/>
+      <c r="G841" s="2"/>
     </row>
     <row r="842">
-      <c r="F842" s="2"/>
+      <c r="G842" s="2"/>
     </row>
     <row r="843">
-      <c r="F843" s="2"/>
+      <c r="G843" s="2"/>
     </row>
     <row r="844">
-      <c r="F844" s="2"/>
+      <c r="G844" s="2"/>
     </row>
     <row r="845">
-      <c r="F845" s="2"/>
+      <c r="G845" s="2"/>
     </row>
     <row r="846">
-      <c r="F846" s="2"/>
+      <c r="G846" s="2"/>
     </row>
     <row r="847">
-      <c r="F847" s="2"/>
+      <c r="G847" s="2"/>
     </row>
     <row r="848">
-      <c r="F848" s="2"/>
+      <c r="G848" s="2"/>
     </row>
     <row r="849">
-      <c r="F849" s="2"/>
+      <c r="G849" s="2"/>
     </row>
     <row r="850">
-      <c r="F850" s="2"/>
+      <c r="G850" s="2"/>
     </row>
     <row r="851">
-      <c r="F851" s="2"/>
+      <c r="G851" s="2"/>
     </row>
     <row r="852">
-      <c r="F852" s="2"/>
+      <c r="G852" s="2"/>
     </row>
     <row r="853">
-      <c r="F853" s="2"/>
+      <c r="G853" s="2"/>
     </row>
     <row r="854">
-      <c r="F854" s="2"/>
+      <c r="G854" s="2"/>
     </row>
     <row r="855">
-      <c r="F855" s="2"/>
+      <c r="G855" s="2"/>
     </row>
     <row r="856">
-      <c r="F856" s="2"/>
+      <c r="G856" s="2"/>
     </row>
     <row r="857">
-      <c r="F857" s="2"/>
+      <c r="G857" s="2"/>
     </row>
     <row r="858">
-      <c r="F858" s="2"/>
+      <c r="G858" s="2"/>
     </row>
     <row r="859">
-      <c r="F859" s="2"/>
+      <c r="G859" s="2"/>
     </row>
     <row r="860">
-      <c r="F860" s="2"/>
+      <c r="G860" s="2"/>
     </row>
     <row r="861">
-      <c r="F861" s="2"/>
+      <c r="G861" s="2"/>
     </row>
     <row r="862">
-      <c r="F862" s="2"/>
+      <c r="G862" s="2"/>
     </row>
     <row r="863">
-      <c r="F863" s="2"/>
+      <c r="G863" s="2"/>
     </row>
     <row r="864">
-      <c r="F864" s="2"/>
+      <c r="G864" s="2"/>
     </row>
     <row r="865">
-      <c r="F865" s="2"/>
+      <c r="G865" s="2"/>
     </row>
     <row r="866">
-      <c r="F866" s="2"/>
+      <c r="G866" s="2"/>
     </row>
     <row r="867">
-      <c r="F867" s="2"/>
+      <c r="G867" s="2"/>
     </row>
     <row r="868">
-      <c r="F868" s="2"/>
+      <c r="G868" s="2"/>
     </row>
     <row r="869">
-      <c r="F869" s="2"/>
+      <c r="G869" s="2"/>
     </row>
     <row r="870">
-      <c r="F870" s="2"/>
+      <c r="G870" s="2"/>
     </row>
     <row r="871">
-      <c r="F871" s="2"/>
+      <c r="G871" s="2"/>
     </row>
     <row r="872">
-      <c r="F872" s="2"/>
+      <c r="G872" s="2"/>
     </row>
     <row r="873">
-      <c r="F873" s="2"/>
+      <c r="G873" s="2"/>
     </row>
     <row r="874">
-      <c r="F874" s="2"/>
+      <c r="G874" s="2"/>
     </row>
     <row r="875">
-      <c r="F875" s="2"/>
+      <c r="G875" s="2"/>
     </row>
     <row r="876">
-      <c r="F876" s="2"/>
+      <c r="G876" s="2"/>
     </row>
     <row r="877">
-      <c r="F877" s="2"/>
+      <c r="G877" s="2"/>
     </row>
     <row r="878">
-      <c r="F878" s="2"/>
+      <c r="G878" s="2"/>
     </row>
     <row r="879">
-      <c r="F879" s="2"/>
+      <c r="G879" s="2"/>
     </row>
     <row r="880">
-      <c r="F880" s="2"/>
+      <c r="G880" s="2"/>
     </row>
     <row r="881">
-      <c r="F881" s="2"/>
+      <c r="G881" s="2"/>
     </row>
     <row r="882">
-      <c r="F882" s="2"/>
+      <c r="G882" s="2"/>
     </row>
     <row r="883">
-      <c r="F883" s="2"/>
+      <c r="G883" s="2"/>
     </row>
     <row r="884">
-      <c r="F884" s="2"/>
+      <c r="G884" s="2"/>
     </row>
     <row r="885">
-      <c r="F885" s="2"/>
+      <c r="G885" s="2"/>
     </row>
     <row r="886">
-      <c r="F886" s="2"/>
+      <c r="G886" s="2"/>
     </row>
     <row r="887">
-      <c r="F887" s="2"/>
+      <c r="G887" s="2"/>
     </row>
     <row r="888">
-      <c r="F888" s="2"/>
+      <c r="G888" s="2"/>
     </row>
     <row r="889">
-      <c r="F889" s="2"/>
+      <c r="G889" s="2"/>
     </row>
     <row r="890">
-      <c r="F890" s="2"/>
+      <c r="G890" s="2"/>
     </row>
     <row r="891">
-      <c r="F891" s="2"/>
+      <c r="G891" s="2"/>
     </row>
     <row r="892">
-      <c r="F892" s="2"/>
+      <c r="G892" s="2"/>
     </row>
     <row r="893">
-      <c r="F893" s="2"/>
+      <c r="G893" s="2"/>
     </row>
     <row r="894">
-      <c r="F894" s="2"/>
+      <c r="G894" s="2"/>
     </row>
     <row r="895">
-      <c r="F895" s="2"/>
+      <c r="G895" s="2"/>
     </row>
     <row r="896">
-      <c r="F896" s="2"/>
+      <c r="G896" s="2"/>
     </row>
     <row r="897">
-      <c r="F897" s="2"/>
+      <c r="G897" s="2"/>
     </row>
     <row r="898">
-      <c r="F898" s="2"/>
+      <c r="G898" s="2"/>
     </row>
     <row r="899">
-      <c r="F899" s="2"/>
+      <c r="G899" s="2"/>
     </row>
     <row r="900">
-      <c r="F900" s="2"/>
+      <c r="G900" s="2"/>
     </row>
     <row r="901">
-      <c r="F901" s="2"/>
+      <c r="G901" s="2"/>
     </row>
     <row r="902">
-      <c r="F902" s="2"/>
+      <c r="G902" s="2"/>
     </row>
     <row r="903">
-      <c r="F903" s="2"/>
+      <c r="G903" s="2"/>
     </row>
     <row r="904">
-      <c r="F904" s="2"/>
+      <c r="G904" s="2"/>
     </row>
     <row r="905">
-      <c r="F905" s="2"/>
+      <c r="G905" s="2"/>
     </row>
     <row r="906">
-      <c r="F906" s="2"/>
+      <c r="G906" s="2"/>
     </row>
     <row r="907">
-      <c r="F907" s="2"/>
+      <c r="G907" s="2"/>
     </row>
     <row r="908">
-      <c r="F908" s="2"/>
+      <c r="G908" s="2"/>
     </row>
     <row r="909">
-      <c r="F909" s="2"/>
+      <c r="G909" s="2"/>
     </row>
     <row r="910">
-      <c r="F910" s="2"/>
+      <c r="G910" s="2"/>
     </row>
     <row r="911">
-      <c r="F911" s="2"/>
+      <c r="G911" s="2"/>
     </row>
     <row r="912">
-      <c r="F912" s="2"/>
+      <c r="G912" s="2"/>
     </row>
     <row r="913">
-      <c r="F913" s="2"/>
+      <c r="G913" s="2"/>
     </row>
     <row r="914">
-      <c r="F914" s="2"/>
+      <c r="G914" s="2"/>
     </row>
     <row r="915">
-      <c r="F915" s="2"/>
+      <c r="G915" s="2"/>
     </row>
     <row r="916">
-      <c r="F916" s="2"/>
+      <c r="G916" s="2"/>
     </row>
     <row r="917">
-      <c r="F917" s="2"/>
+      <c r="G917" s="2"/>
     </row>
     <row r="918">
-      <c r="F918" s="2"/>
+      <c r="G918" s="2"/>
     </row>
     <row r="919">
-      <c r="F919" s="2"/>
+      <c r="G919" s="2"/>
     </row>
     <row r="920">
-      <c r="F920" s="2"/>
+      <c r="G920" s="2"/>
     </row>
     <row r="921">
-      <c r="F921" s="2"/>
+      <c r="G921" s="2"/>
     </row>
     <row r="922">
-      <c r="F922" s="2"/>
+      <c r="G922" s="2"/>
     </row>
     <row r="923">
-      <c r="F923" s="2"/>
+      <c r="G923" s="2"/>
     </row>
     <row r="924">
-      <c r="F924" s="2"/>
+      <c r="G924" s="2"/>
     </row>
     <row r="925">
-      <c r="F925" s="2"/>
+      <c r="G925" s="2"/>
     </row>
     <row r="926">
-      <c r="F926" s="2"/>
+      <c r="G926" s="2"/>
     </row>
     <row r="927">
-      <c r="F927" s="2"/>
+      <c r="G927" s="2"/>
     </row>
     <row r="928">
-      <c r="F928" s="2"/>
+      <c r="G928" s="2"/>
     </row>
     <row r="929">
-      <c r="F929" s="2"/>
+      <c r="G929" s="2"/>
     </row>
     <row r="930">
-      <c r="F930" s="2"/>
+      <c r="G930" s="2"/>
     </row>
     <row r="931">
-      <c r="F931" s="2"/>
+      <c r="G931" s="2"/>
     </row>
     <row r="932">
-      <c r="F932" s="2"/>
+      <c r="G932" s="2"/>
     </row>
     <row r="933">
-      <c r="F933" s="2"/>
+      <c r="G933" s="2"/>
     </row>
     <row r="934">
-      <c r="F934" s="2"/>
+      <c r="G934" s="2"/>
     </row>
     <row r="935">
-      <c r="F935" s="2"/>
+      <c r="G935" s="2"/>
     </row>
     <row r="936">
-      <c r="F936" s="2"/>
+      <c r="G936" s="2"/>
     </row>
     <row r="937">
-      <c r="F937" s="2"/>
+      <c r="G937" s="2"/>
     </row>
     <row r="938">
-      <c r="F938" s="2"/>
+      <c r="G938" s="2"/>
     </row>
     <row r="939">
-      <c r="F939" s="2"/>
+      <c r="G939" s="2"/>
     </row>
     <row r="940">
-      <c r="F940" s="2"/>
+      <c r="G940" s="2"/>
     </row>
     <row r="941">
-      <c r="F941" s="2"/>
+      <c r="G941" s="2"/>
     </row>
     <row r="942">
-      <c r="F942" s="2"/>
+      <c r="G942" s="2"/>
     </row>
     <row r="943">
-      <c r="F943" s="2"/>
+      <c r="G943" s="2"/>
     </row>
     <row r="944">
-      <c r="F944" s="2"/>
+      <c r="G944" s="2"/>
     </row>
     <row r="945">
-      <c r="F945" s="2"/>
+      <c r="G945" s="2"/>
     </row>
     <row r="946">
-      <c r="F946" s="2"/>
+      <c r="G946" s="2"/>
     </row>
     <row r="947">
-      <c r="F947" s="2"/>
+      <c r="G947" s="2"/>
     </row>
     <row r="948">
-      <c r="F948" s="2"/>
+      <c r="G948" s="2"/>
     </row>
     <row r="949">
-      <c r="F949" s="2"/>
+      <c r="G949" s="2"/>
     </row>
     <row r="950">
-      <c r="F950" s="2"/>
+      <c r="G950" s="2"/>
     </row>
     <row r="951">
-      <c r="F951" s="2"/>
+      <c r="G951" s="2"/>
     </row>
     <row r="952">
-      <c r="F952" s="2"/>
+      <c r="G952" s="2"/>
     </row>
     <row r="953">
-      <c r="F953" s="2"/>
+      <c r="G953" s="2"/>
     </row>
     <row r="954">
-      <c r="F954" s="2"/>
+      <c r="G954" s="2"/>
     </row>
     <row r="955">
-      <c r="F955" s="2"/>
+      <c r="G955" s="2"/>
     </row>
     <row r="956">
-      <c r="F956" s="2"/>
+      <c r="G956" s="2"/>
     </row>
     <row r="957">
-      <c r="F957" s="2"/>
+      <c r="G957" s="2"/>
     </row>
     <row r="958">
-      <c r="F958" s="2"/>
+      <c r="G958" s="2"/>
     </row>
     <row r="959">
-      <c r="F959" s="2"/>
+      <c r="G959" s="2"/>
     </row>
     <row r="960">
-      <c r="F960" s="2"/>
+      <c r="G960" s="2"/>
     </row>
     <row r="961">
-      <c r="F961" s="2"/>
+      <c r="G961" s="2"/>
     </row>
     <row r="962">
-      <c r="F962" s="2"/>
+      <c r="G962" s="2"/>
     </row>
     <row r="963">
-      <c r="F963" s="2"/>
+      <c r="G963" s="2"/>
     </row>
     <row r="964">
-      <c r="F964" s="2"/>
+      <c r="G964" s="2"/>
     </row>
     <row r="965">
-      <c r="F965" s="2"/>
+      <c r="G965" s="2"/>
     </row>
     <row r="966">
-      <c r="F966" s="2"/>
+      <c r="G966" s="2"/>
     </row>
     <row r="967">
-      <c r="F967" s="2"/>
+      <c r="G967" s="2"/>
     </row>
     <row r="968">
-      <c r="F968" s="2"/>
+      <c r="G968" s="2"/>
     </row>
     <row r="969">
-      <c r="F969" s="2"/>
+      <c r="G969" s="2"/>
     </row>
     <row r="970">
-      <c r="F970" s="2"/>
+      <c r="G970" s="2"/>
     </row>
     <row r="971">
-      <c r="F971" s="2"/>
+      <c r="G971" s="2"/>
     </row>
     <row r="972">
-      <c r="F972" s="2"/>
+      <c r="G972" s="2"/>
     </row>
     <row r="973">
-      <c r="F973" s="2"/>
+      <c r="G973" s="2"/>
     </row>
     <row r="974">
-      <c r="F974" s="2"/>
+      <c r="G974" s="2"/>
     </row>
     <row r="975">
-      <c r="F975" s="2"/>
+      <c r="G975" s="2"/>
     </row>
     <row r="976">
-      <c r="F976" s="2"/>
+      <c r="G976" s="2"/>
     </row>
     <row r="977">
-      <c r="F977" s="2"/>
+      <c r="G977" s="2"/>
     </row>
     <row r="978">
-      <c r="F978" s="2"/>
+      <c r="G978" s="2"/>
     </row>
     <row r="979">
-      <c r="F979" s="2"/>
+      <c r="G979" s="2"/>
     </row>
     <row r="980">
-      <c r="F980" s="2"/>
+      <c r="G980" s="2"/>
     </row>
     <row r="981">
-      <c r="F981" s="2"/>
+      <c r="G981" s="2"/>
     </row>
     <row r="982">
-      <c r="F982" s="2"/>
+      <c r="G982" s="2"/>
     </row>
     <row r="983">
-      <c r="F983" s="2"/>
+      <c r="G983" s="2"/>
     </row>
     <row r="984">
-      <c r="F984" s="2"/>
+      <c r="G984" s="2"/>
     </row>
     <row r="985">
-      <c r="F985" s="2"/>
+      <c r="G985" s="2"/>
     </row>
     <row r="986">
-      <c r="F986" s="2"/>
+      <c r="G986" s="2"/>
     </row>
     <row r="987">
-      <c r="F987" s="2"/>
+      <c r="G987" s="2"/>
     </row>
     <row r="988">
-      <c r="F988" s="2"/>
+      <c r="G988" s="2"/>
     </row>
     <row r="989">
-      <c r="F989" s="2"/>
+      <c r="G989" s="2"/>
     </row>
     <row r="990">
-      <c r="F990" s="2"/>
+      <c r="G990" s="2"/>
     </row>
     <row r="991">
-      <c r="F991" s="2"/>
+      <c r="G991" s="2"/>
     </row>
     <row r="992">
-      <c r="F992" s="2"/>
+      <c r="G992" s="2"/>
     </row>
     <row r="993">
-      <c r="F993" s="2"/>
+      <c r="G993" s="2"/>
     </row>
     <row r="994">
-      <c r="F994" s="2"/>
+      <c r="G994" s="2"/>
     </row>
     <row r="995">
-      <c r="F995" s="2"/>
+      <c r="G995" s="2"/>
     </row>
     <row r="996">
-      <c r="F996" s="2"/>
+      <c r="G996" s="2"/>
     </row>
     <row r="997">
-      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
     </row>
     <row r="998">
-      <c r="F998" s="2"/>
+      <c r="G998" s="2"/>
     </row>
     <row r="999">
-      <c r="F999" s="2"/>
+      <c r="G999" s="2"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="2"/>
+      <c r="G1000" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>time</t>
   </si>
@@ -67,18 +67,21 @@
     <t>The trade office took a step toward paving the way to vote on the updated deal early in 2018 when it formally notified Congress in September that it expected changes to U.S. trade remedy laws would be coming. That step is required 180 days before any agreement can be signed, so the decision to send notice back on Sept. 24 indicated the administration was hopeful at that point that it might have been able to sign a deal as early as March 22.</t>
   </si>
   <si>
+    <t>Negotiations ongoing</t>
+  </si>
+  <si>
+    <t>Negotiators from the three countries have been meeting regularly since talks began in August, and while they have closed a handful of chapters of the agreement they have yet to make substantial progress on any of the most controversial and highest-profile issues. After holding seven formal negotiating rounds that rotated among venues in each of the three countries, negotiators — and often trade ministers too — have been meeting consistently in Washington in an attempt to wrap up talks as quickly as possible.</t>
+  </si>
+  <si>
     <t>Negotiations conclude</t>
   </si>
   <si>
-    <t>Negotiators from the three countries have been meeting regularly since talks began in August, and while they have closed a handful of chapters of the agreement they have yet to make substantial progress on any of the most controversial and highest-profile issues. After holding seven formal negotiating rounds that rotated among venues in each of the three countries, negotiators — and often trade ministers too — have been meeting consistently in Washington in an attempt to wrap up talks as quickly as possible.</t>
+    <t>no</t>
   </si>
   <si>
     <t>90-day notification of intent to sign agreement</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>The next step after negotiations conclude — or as they are nearing their finish — is for the U.S. to formally notify Congress that it intends to sign a new deal. House Speaker Paul Ryan made headlines when he said in May that Congress would need that paper in hand by May 17 if the administration wanted any hope of passing the agreement through the current Congress, but he later said there was “some wiggle room” on that deadline.</t>
   </si>
   <si>
@@ -127,25 +130,22 @@
     <t>Congressional Consideration and implementation</t>
   </si>
   <si>
+    <t>Could take 45 days</t>
+  </si>
+  <si>
     <t>Implementing bill introduced in House and Senate</t>
   </si>
   <si>
     <t>The Ways and Means and Finance Committees may take up to 45 days in session to report the bill back to the floor, and they may not amend it nor can they recommend amendments. If they do not report the bill after 45 session days it will be automatically discharged to the floor.</t>
   </si>
   <si>
-    <t>Could take 45 days</t>
+    <t>Could take 15 days</t>
   </si>
   <si>
     <t>House Ways and Means must report bill</t>
   </si>
   <si>
-    <t>Consideration and implementation</t>
-  </si>
-  <si>
     <t>Because most trade agreements affect tariffs, the implementing bill will be considered a revenue bill, which requires the House to act first.</t>
-  </si>
-  <si>
-    <t>Could take 15 days</t>
   </si>
   <si>
     <t>House must vote on bill</t>
@@ -385,16 +385,14 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -404,7 +402,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
@@ -412,7 +410,7 @@
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -422,25 +420,28 @@
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -449,31 +450,28 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="b">
         <v>0</v>
@@ -481,17 +479,17 @@
     </row>
     <row r="12">
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>0</v>
@@ -499,56 +497,56 @@
     </row>
     <row r="13">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="b">
         <v>0</v>
@@ -556,20 +554,20 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="b">
         <v>0</v>
@@ -577,20 +575,20 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="b">
         <v>0</v>
@@ -598,20 +596,20 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="b">
         <v>0</v>
@@ -619,24 +617,29 @@
     </row>
     <row r="19">
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -644,6 +647,16 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21">
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22">
@@ -3582,6 +3595,9 @@
     </row>
     <row r="1000">
       <c r="G1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="G1001" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
